--- a/Automezzi ASP (8).xlsx
+++ b/Automezzi ASP (8).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmontermini\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmontermini\Desktop\MEZZI ASP\calendario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81538076-F9E8-481C-A9F4-D1A6568EBFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208284D3-C98F-40C1-AF7B-FB142A26A56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="109">
   <si>
     <t>Automezzi ASP</t>
   </si>
@@ -60,9 +60,6 @@
     <t>AUTO</t>
   </si>
   <si>
-    <t>FIAT PUNTO</t>
-  </si>
-  <si>
     <t>BENZINA</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
     <t>PULMINO</t>
   </si>
   <si>
-    <t>FIAT DUCATO ATTREZ</t>
-  </si>
-  <si>
     <t>DIESEL</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>EJ 981 MF</t>
   </si>
   <si>
-    <t>FIAT DOBLO'</t>
-  </si>
-  <si>
     <t>5B</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>FURGONE</t>
   </si>
   <si>
-    <t xml:space="preserve">CITROEN Jumper </t>
-  </si>
-  <si>
     <t>5b</t>
   </si>
   <si>
@@ -126,15 +114,9 @@
     <t>CD 805 RR</t>
   </si>
   <si>
-    <t>OPEL AGILA</t>
-  </si>
-  <si>
     <t>FF464 XR</t>
   </si>
   <si>
-    <t>PANDA</t>
-  </si>
-  <si>
     <t>GPL/BENZ</t>
   </si>
   <si>
@@ -156,9 +138,6 @@
     <t>TELONATO CON PEDANA ELETTRICA</t>
   </si>
   <si>
-    <t>FIAT  IVECO</t>
-  </si>
-  <si>
     <t>6B</t>
   </si>
   <si>
@@ -171,9 +150,6 @@
     <t>EF 648 TZ</t>
   </si>
   <si>
-    <t>SPARK</t>
-  </si>
-  <si>
     <t>5A</t>
   </si>
   <si>
@@ -183,9 +159,6 @@
     <t>GG039DR</t>
   </si>
   <si>
-    <t>FORD</t>
-  </si>
-  <si>
     <t>6D</t>
   </si>
   <si>
@@ -198,18 +171,12 @@
     <t>FF 892 KS</t>
   </si>
   <si>
-    <t>FIAT DUCATO</t>
-  </si>
-  <si>
     <t>GASOLIO</t>
   </si>
   <si>
     <t>GG610DV</t>
   </si>
   <si>
-    <t>DACIA</t>
-  </si>
-  <si>
     <t>ELETTRICA</t>
   </si>
   <si>
@@ -237,9 +204,6 @@
     <t xml:space="preserve">Progetti del Cuore </t>
   </si>
   <si>
-    <t>FIAT DOBLO' ATTREZZATO</t>
-  </si>
-  <si>
     <t>Casa dei Mille</t>
   </si>
   <si>
@@ -261,9 +225,6 @@
     <t>EA428BX</t>
   </si>
   <si>
-    <t>Fiat Doblò Attrezzato</t>
-  </si>
-  <si>
     <t>Gasolio</t>
   </si>
   <si>
@@ -325,6 +286,99 @@
   </si>
   <si>
     <t xml:space="preserve">Domenico Sgromo INT. (307) </t>
+  </si>
+  <si>
+    <t>FIAT DUCATO ATTREZ
+DT 278 HF</t>
+  </si>
+  <si>
+    <t>FIAT PUNTO
+DE 930 KT</t>
+  </si>
+  <si>
+    <t>FIAT DOBLO'
+EJ 981 MF</t>
+  </si>
+  <si>
+    <t>FIAT DUCATO ATTREZ
+EH 392 DG</t>
+  </si>
+  <si>
+    <t>CITROEN Jumper 
+EP 016 SP</t>
+  </si>
+  <si>
+    <t>CITROEN Jumper 
+EP 086 SP</t>
+  </si>
+  <si>
+    <t>OPEL AGILA
+CD 805 RR</t>
+  </si>
+  <si>
+    <t>PANDA
+FF 464 XR</t>
+  </si>
+  <si>
+    <t>PANDA
+FF 465 XR</t>
+  </si>
+  <si>
+    <t>FIAT DUCATO ATTREZ
+FV 619 XP</t>
+  </si>
+  <si>
+    <t>FIAT  IVECO
+FX 546 JW</t>
+  </si>
+  <si>
+    <t>FIAT DUCATO ATTREZ
+AR 574 FY</t>
+  </si>
+  <si>
+    <t>SPARK 
+EF 648 TZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORD
+GG 039 DR
+</t>
+  </si>
+  <si>
+    <t>FIAT DUCATO
+ FF 892 KS</t>
+  </si>
+  <si>
+    <t>DACIA
+GG 610 DV</t>
+  </si>
+  <si>
+    <t>PANDA
+GL 965 CY</t>
+  </si>
+  <si>
+    <t>FORD
+ GR 040 HF</t>
+  </si>
+  <si>
+    <t>FIAT DOBLO' ATTREZZATO
+GK 013 RZ</t>
+  </si>
+  <si>
+    <t>FIAT DOBLO' ATTREZZATO
+GL 589 YA</t>
+  </si>
+  <si>
+    <t>FIAT DUCATO ATTREZ
+FG 370 AZ</t>
+  </si>
+  <si>
+    <t>Fiat Doblò Attrezzato
+EA 428 BX</t>
+  </si>
+  <si>
+    <t>Fiat Doblò Attrezzato
+EA 447 BX</t>
   </si>
 </sst>
 </file>
@@ -450,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -486,9 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -797,8 +848,8 @@
   </sheetPr>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
@@ -857,8 +908,8 @@
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>10</v>
+      <c r="C3" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="D3" s="8">
         <v>39041</v>
@@ -867,24 +918,24 @@
         <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>82</v>
+      <c r="H3" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
+      <c r="C4" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="8">
         <v>40136</v>
@@ -893,126 +944,126 @@
         <v>4</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>83</v>
+        <v>15</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>19</v>
+      <c r="C5" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="D5" s="8">
         <v>40784</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="D6" s="8">
         <v>41101</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>82</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="D7" s="8">
         <v>41365</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="D8" s="8">
         <v>41365</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>85</v>
+        <v>26</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
+      <c r="C9" s="9" t="s">
+        <v>92</v>
       </c>
       <c r="D9" s="8">
         <v>37709</v>
@@ -1021,290 +1072,290 @@
         <v>4</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+      <c r="H9" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
+      <c r="C10" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="D10" s="8">
         <v>42696</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>87</v>
+        <v>30</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
+      <c r="C11" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="8">
         <v>42696</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="8">
         <v>43656</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>89</v>
+        <v>30</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="D13" s="8">
         <v>42864</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
+      <c r="C14" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="D14" s="8">
         <v>35587</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>47</v>
+      <c r="C15" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="D15" s="8">
         <v>40547</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D16" s="8">
         <v>44470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>92</v>
+        <v>45</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D17" s="8">
         <v>42783</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="36" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>59</v>
+      <c r="C18" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D18" s="8">
         <v>44565</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>94</v>
+        <v>50</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>34</v>
+      <c r="C19" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="D19" s="8">
         <v>44825</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>95</v>
+        <v>45</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="D20" s="8">
         <v>45253</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>93</v>
+        <v>11</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="11"/>
@@ -1312,17 +1363,17 @@
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="D22" s="8">
         <v>44774</v>
@@ -1331,24 +1382,24 @@
         <v>6</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" s="19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="36" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>69</v>
+      <c r="C23" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="D23" s="8">
         <v>44972</v>
@@ -1357,89 +1408,89 @@
         <v>6</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>96</v>
+        <v>60</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="52.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="52.2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="D25" s="7">
         <v>2012</v>
       </c>
-      <c r="E25" s="17"/>
+      <c r="E25" s="16"/>
       <c r="F25" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>98</v>
+        <v>66</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="52.2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>77</v>
+        <v>57</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="D26" s="7">
         <v>2012</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>97</v>
+        <v>63</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
